--- a/models/body/data.xlsx
+++ b/models/body/data.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="substance" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="reaction" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -132,18 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">Morphine-3-glucuronoide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubstanceUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initialConcentration</t>
   </si>
 </sst>
 </file>
@@ -205,6 +192,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -416,13 +404,13 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+      <selection pane="topLeft" activeCell="H48" activeCellId="0" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.36"/>
@@ -785,107 +773,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="18.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>